--- a/AutoTests Merged/data/tickets.xlsx
+++ b/AutoTests Merged/data/tickets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -9,14 +9,105 @@
   <sheets>
     <sheet name="Successful" sheetId="1" r:id="rId1"/>
     <sheet name="Declined" sheetId="2" r:id="rId2"/>
-    <sheet name="Customer Successful" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer Successful" sheetId="4" r:id="rId3"/>
+    <sheet name="Customer Declined" sheetId="5" r:id="rId4"/>
+    <sheet name="Customer Successful--AlertTest" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="K22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Choose any future date (up to December, 1, 2018) on the calendar.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="S21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:
+Until 01.01.2019</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no event on su and sa.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="637">
   <si>
     <t>id_testdata</t>
   </si>
@@ -714,50 +805,1226 @@
     <t>55.50</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>https://dev.godo.io/customer_facing.aspx?Activity=b7308051-c34a-469e-a283-db155f09a879</t>
+  </si>
+  <si>
+    <t>Super Test Activity</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>02:30 PM</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>GoDo-701</t>
+  </si>
+  <si>
+    <t>GoDo-702</t>
+  </si>
+  <si>
+    <t>GoDo-703</t>
+  </si>
+  <si>
+    <t>GoDo-704</t>
+  </si>
+  <si>
+    <t>GoDo-705</t>
+  </si>
+  <si>
+    <t>GoDo-706</t>
+  </si>
+  <si>
+    <t>4000000000003055</t>
+  </si>
+  <si>
+    <t>GoDo-707</t>
+  </si>
+  <si>
+    <t>GoDo-708</t>
+  </si>
+  <si>
+    <t>GoDo-709</t>
+  </si>
+  <si>
+    <t>GoDo-710</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>Christy</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Rosalie</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Amette-Spock</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Rodriquez</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>Dawson</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Emilio</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Geoffrey</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Lorene</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Gladys</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Gail</t>
+  </si>
+  <si>
+    <t>O'brien</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Horton</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Christie</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Carlton</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Phelps</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>GoDo-Cash -</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Maxey</t>
+  </si>
+  <si>
+    <t>Vallie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlin </t>
+  </si>
+  <si>
+    <t>Hutchison</t>
+  </si>
+  <si>
+    <t>godo-cash-@mailinator.com</t>
+  </si>
+  <si>
+    <t>2:00 PM CT</t>
+  </si>
+  <si>
+    <t>GoDo-279</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>278REGRESS</t>
+  </si>
+  <si>
+    <t>godo-279@mailinator.com</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>11:30 AM CT</t>
+  </si>
+  <si>
+    <t>$200.00</t>
+  </si>
+  <si>
+    <t>$18.50</t>
+  </si>
+  <si>
+    <t>$203.50</t>
+  </si>
+  <si>
+    <t>- $15.00</t>
+  </si>
+  <si>
+    <t>GoDo-280</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Kelli</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>godo-280@mailinator.com</t>
+  </si>
+  <si>
+    <t>29130</t>
+  </si>
+  <si>
+    <t>$300.00</t>
+  </si>
+  <si>
+    <t>$28.50</t>
+  </si>
+  <si>
+    <t>$313.50</t>
+  </si>
+  <si>
+    <t>GoDo-292</t>
+  </si>
+  <si>
+    <t>Climbing</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Dewey</t>
+  </si>
+  <si>
+    <t>Jensen</t>
+  </si>
+  <si>
+    <t>godo-292@mailinator.com</t>
+  </si>
+  <si>
+    <t>89611</t>
+  </si>
+  <si>
+    <t>CASE123</t>
+  </si>
+  <si>
+    <t>2:00 PM AT</t>
+  </si>
+  <si>
+    <t>$45.00</t>
+  </si>
+  <si>
+    <t>- $4.50</t>
+  </si>
+  <si>
+    <t>$4.05</t>
+  </si>
+  <si>
+    <t>$44.55</t>
+  </si>
+  <si>
+    <t>GoDo-293</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>godo-293@mailinator.com</t>
+  </si>
+  <si>
+    <t>71502</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>- $5.00</t>
+  </si>
+  <si>
+    <t>$4.50</t>
+  </si>
+  <si>
+    <t>$49.50</t>
+  </si>
+  <si>
+    <t>GoDo-297</t>
+  </si>
+  <si>
+    <t>Five dollars</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11:10 AM CT</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>godo-297@mailinator.com</t>
+  </si>
+  <si>
+    <t>60156</t>
+  </si>
+  <si>
+    <t>- $2.00</t>
+  </si>
+  <si>
+    <t>$0.90</t>
+  </si>
+  <si>
+    <t>$18.90</t>
+  </si>
+  <si>
+    <t>GoDo-298</t>
+  </si>
+  <si>
+    <t>ccccc</t>
+  </si>
+  <si>
+    <t>10:00 AM CT</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>$20.01</t>
+  </si>
+  <si>
+    <t>$0.18</t>
+  </si>
+  <si>
+    <t>$18.19</t>
+  </si>
+  <si>
+    <t>59701</t>
+  </si>
+  <si>
+    <t>godo-298@mailinator.com</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>GoDo-301</t>
+  </si>
+  <si>
+    <t>Ferdinand</t>
+  </si>
+  <si>
+    <t>Bruton</t>
+  </si>
+  <si>
+    <t>godo-301@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-305</t>
+  </si>
+  <si>
+    <t>Germaine</t>
+  </si>
+  <si>
+    <t>Callender</t>
+  </si>
+  <si>
+    <t>godo-305@mailinator.com</t>
+  </si>
+  <si>
+    <t>19380</t>
+  </si>
+  <si>
+    <t>FROMTO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>GoDo-306</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Latricia</t>
+  </si>
+  <si>
+    <t>Ouellette</t>
+  </si>
+  <si>
+    <t>godo-306@mailinator.com</t>
+  </si>
+  <si>
+    <t>10:20 AM AT</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>godo-701@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-702@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-703@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-704@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-705@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-706@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-707@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-708@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-709@mailinator.com</t>
+  </si>
+  <si>
+    <t>godo-710@mailinator.com</t>
+  </si>
+  <si>
+    <t>GoDo-153</t>
+  </si>
+  <si>
+    <t>godo-153@mailinator.com</t>
+  </si>
+  <si>
+    <t>33917</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>COOL013</t>
+  </si>
+  <si>
+    <t>214.60</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>-15.00</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>GoDo-142</t>
+  </si>
+  <si>
+    <t>godo-142@mailinator.com</t>
+  </si>
+  <si>
+    <t>ANZHELA</t>
+  </si>
+  <si>
+    <t>-10.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>18951</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>104.40</t>
+  </si>
+  <si>
+    <t>GoDo-146</t>
+  </si>
+  <si>
+    <t>JULY2017</t>
+  </si>
+  <si>
+    <t>godo-146@mailinator.com</t>
+  </si>
+  <si>
+    <t>-12.00</t>
+  </si>
+  <si>
+    <t>102.08</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>36605</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>GoDo-149</t>
+  </si>
+  <si>
+    <t>SUPER013</t>
+  </si>
+  <si>
+    <t>godo-149@mailinator.com</t>
+  </si>
+  <si>
+    <t>21801</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>GoDo-151</t>
+  </si>
+  <si>
+    <t>godo-151@mailinator.com</t>
+  </si>
+  <si>
+    <t>DURATIONREGR</t>
+  </si>
+  <si>
+    <t>46304</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Barnes</t>
+  </si>
+  <si>
+    <t>GoDo-155</t>
+  </si>
+  <si>
+    <t>godo-155@mailinator.com</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>95008</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>330.60</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>17.10</t>
+  </si>
+  <si>
+    <t>GoDo-156</t>
+  </si>
+  <si>
+    <t>MAX013</t>
+  </si>
+  <si>
+    <t>godo-156@mailinator.com</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>53402</t>
+  </si>
+  <si>
+    <t>208.80</t>
+  </si>
+  <si>
+    <t>-20.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>10.80</t>
+  </si>
+  <si>
+    <t>GoDo-157</t>
+  </si>
+  <si>
+    <t>godo-157@mailinator.com</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>04401</t>
+  </si>
+  <si>
+    <t>92.80</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>GoDo-159</t>
+  </si>
+  <si>
+    <t>https://dev.godo.io/customer_facing.aspx?Activity=d7d33c05-93ea-4000-9033-80c8d2bbe006</t>
+  </si>
+  <si>
+    <t>iPad activity</t>
+  </si>
+  <si>
+    <t>07:00 AM</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>godo-159@mailinator.com</t>
+  </si>
+  <si>
+    <t>01902</t>
+  </si>
+  <si>
+    <t>MINIMUMPRICE</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>GoDo-312</t>
+  </si>
+  <si>
+    <t>60.01</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>Lillian</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>godo-312@mailinator.com</t>
+  </si>
+  <si>
+    <t>06051</t>
+  </si>
+  <si>
+    <t>55.51</t>
+  </si>
+  <si>
+    <t>GoDo-147</t>
+  </si>
+  <si>
+    <t>godo-147@mailinator.com</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>98503</t>
+  </si>
+  <si>
+    <t>72OFF</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>232.00</t>
+  </si>
+  <si>
+    <t>GoDo-148</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>godo-148@mailinator.com</t>
+  </si>
+  <si>
+    <t>07076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE2017 </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>GoDo-150</t>
+  </si>
+  <si>
+    <t>https://dev.godo.io/customer_facing.aspx?Activity=02a8b72d-d57b-4c3e-88ab-2aecf83d7b92</t>
+  </si>
+  <si>
+    <t>activity07-013</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>Massey</t>
+  </si>
+  <si>
+    <t>godo-150@mailinator.com</t>
+  </si>
+  <si>
+    <t>06512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPER013 </t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11:30 AM</t>
+  </si>
+  <si>
+    <t>GoDo-152</t>
+  </si>
+  <si>
+    <t>godo-152@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPIRED013 </t>
+  </si>
+  <si>
+    <t>92806</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>GoDo-154</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>godo-154@mailinator.com</t>
+  </si>
+  <si>
+    <t>46322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOL013 </t>
+  </si>
+  <si>
+    <t>GoDo-158</t>
+  </si>
+  <si>
+    <t>godo-158@mailinator.com</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>27405</t>
+  </si>
+  <si>
+    <t>GoDo-277</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>godo-277@mailinator.com</t>
+  </si>
+  <si>
+    <t>77478</t>
+  </si>
+  <si>
+    <t>57701</t>
+  </si>
+  <si>
+    <t>TAI</t>
+  </si>
+  <si>
+    <t>$100.00</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>$110.00</t>
+  </si>
+  <si>
+    <t>GoDo-282</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>godo-282@mailinator.com</t>
+  </si>
+  <si>
+    <t>23112</t>
+  </si>
+  <si>
+    <t>GoDo-285</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>godo-285@mailinator.com</t>
+  </si>
+  <si>
+    <t>08816</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>- $2.50</t>
+  </si>
+  <si>
+    <t>$2.25</t>
+  </si>
+  <si>
+    <t>$24.75</t>
+  </si>
+  <si>
+    <t>GoDo-287</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>godo-287@mailinator.com</t>
+  </si>
+  <si>
+    <t>Clarence</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>02472</t>
+  </si>
+  <si>
+    <t>286REGRESS</t>
+  </si>
+  <si>
+    <t>$105.00</t>
+  </si>
+  <si>
+    <t>$10.50</t>
+  </si>
+  <si>
+    <t>$115.50</t>
+  </si>
+  <si>
+    <t>GoDo-295</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>godo-295@mailinator.com</t>
+  </si>
+  <si>
+    <t>CASE122</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>55068</t>
+  </si>
+  <si>
+    <t>$55.00</t>
+  </si>
+  <si>
+    <t>$5.50</t>
+  </si>
+  <si>
+    <t>$60.50</t>
+  </si>
+  <si>
+    <t>GoDo-303</t>
+  </si>
+  <si>
+    <t>Activitytesting</t>
+  </si>
+  <si>
+    <t>7:10 PM AT</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>godo-303@mailinator.com</t>
+  </si>
+  <si>
+    <t>30117</t>
+  </si>
+  <si>
+    <t>$19.99</t>
+  </si>
+  <si>
+    <t>$20.99</t>
+  </si>
+  <si>
+    <t>GoDo-304</t>
+  </si>
+  <si>
+    <t>godo-304@mailinator.com</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>01876</t>
+  </si>
+  <si>
+    <t>GoDo-307</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>godo-307@mailinator.com</t>
+  </si>
+  <si>
+    <t>07424</t>
+  </si>
+  <si>
+    <t>GoDo-313</t>
+  </si>
+  <si>
+    <t>godo-313@mailinator.com</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>27587</t>
+  </si>
+  <si>
+    <t>66.59</t>
+  </si>
+  <si>
+    <t>59.99</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>GoDo-315</t>
+  </si>
+  <si>
+    <t>godo-315@mailinator.com</t>
+  </si>
+  <si>
+    <t>27870</t>
+  </si>
+  <si>
+    <t>$1,000.00</t>
+  </si>
+  <si>
+    <t>$1,050.00</t>
+  </si>
+  <si>
+    <t>GoDo-320</t>
+  </si>
+  <si>
+    <t>tyuiop</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>godo-320@mailinator.com</t>
+  </si>
+  <si>
+    <t>17013</t>
+  </si>
+  <si>
+    <t>GoDo-321</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>godo-321@mailinator.com</t>
+  </si>
+  <si>
+    <t>32250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,13 +2041,46 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -795,10 +2095,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1099,1427 +2402,2729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13:N15"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>622</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="K2" s="1">
         <v>2018</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="1">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="1">
         <v>15044466025</v>
       </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="1">
-        <v>35801</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>35801</v>
+      <c r="R2" t="s">
+        <v>623</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R3" t="s">
+        <v>327</v>
+      </c>
+      <c r="S3" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M3" s="1">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M4" s="1">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M6" s="1">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R7" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M9" s="1">
-        <v>5</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>35801</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M10" s="1">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R10" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S10" t="s">
-        <v>115</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>35801</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>35801</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M11" s="1">
-        <v>5</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R12" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>35801</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M12" s="1">
-        <v>5</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S12" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M13" s="1">
-        <v>5</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R13" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S13" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R14" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M14" s="1">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R14" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R15" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S15" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R16" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R17" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R17" s="1">
-        <v>15044466025</v>
-      </c>
-      <c r="S17" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AF17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AE18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AH18" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R19" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R20" t="s">
+        <v>332</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R21" t="s">
+        <v>345</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R22" t="s">
+        <v>572</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R23" t="s">
+        <v>355</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R24" t="s">
+        <v>367</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R25" t="s">
+        <v>379</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R26" t="s">
+        <v>393</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R27" t="s">
+        <v>398</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R28" t="s">
+        <v>402</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R29" t="s">
+        <v>412</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R30" t="s">
+        <v>557</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R31" t="s">
+        <v>567</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R32" t="s">
+        <v>580</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R33" t="s">
+        <v>590</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R34" t="s">
+        <v>601</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R35" t="s">
+        <v>606</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R36" t="s">
+        <v>613</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="R37" t="s">
+        <v>631</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2528,8 +5133,8 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N2" sqref="N2:N11"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +5152,7 @@
     <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
     <col min="12" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
@@ -2708,16 +5313,16 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="R2" s="1">
         <v>15044466025</v>
@@ -2791,16 +5396,16 @@
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="R3" s="1">
         <v>15044466025</v>
@@ -2874,16 +5479,16 @@
         <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="R4" s="1">
         <v>15044466025</v>
@@ -2957,16 +5562,16 @@
         <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="R5" s="1">
         <v>15044466025</v>
@@ -3040,16 +5645,16 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="R6" s="1">
         <v>15044466025</v>
@@ -3123,16 +5728,16 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="R7" s="1">
         <v>15044466025</v>
@@ -3206,16 +5811,16 @@
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="R8" s="1">
         <v>15044466025</v>
@@ -3289,16 +5894,16 @@
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="R9" s="1">
         <v>15044466025</v>
@@ -3372,16 +5977,16 @@
         <v>5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="R10" s="1">
         <v>15044466025</v>
@@ -3455,16 +6060,16 @@
         <v>5</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>181</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="R11" s="1">
         <v>15044466025</v>
@@ -3537,12 +6142,3507 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N17" sqref="N17"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="38.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>191</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="P6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>192</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>196</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>198</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="1">
+        <v>35801</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>35801</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="P15" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>185</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>186</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P17" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P18" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>437</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="P19" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>447</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P20" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>457</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P21" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>461</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P22" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>426</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="P23" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>467</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>477</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P25" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>485</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P26" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>498</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="P27" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>507</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="P28" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>511</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="P29" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>520</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="P30" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>530</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P31" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>538</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="P32" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>546</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="P33" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>550</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="P34" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>616</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="P35" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>635</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AC18" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S2" t="s">
+        <v>415</v>
+      </c>
+      <c r="T2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>35801</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S3" t="s">
+        <v>416</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R4" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S4" t="s">
+        <v>417</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="R5" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S5" t="s">
+        <v>418</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S6" t="s">
+        <v>419</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S7" t="s">
+        <v>420</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="R8" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S8" t="s">
+        <v>421</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R9" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S9" t="s">
+        <v>422</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R10" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S10" t="s">
+        <v>423</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>35801</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="R11" s="1">
+        <v>15044466025</v>
+      </c>
+      <c r="S11" t="s">
+        <v>424</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,7 +9887,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>230</v>
@@ -3867,7 +9967,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>230</v>
@@ -3947,7 +10047,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>230</v>
@@ -4027,7 +10127,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>230</v>
@@ -4104,7 +10204,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>230</v>
@@ -4181,7 +10281,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>230</v>
@@ -4261,7 +10361,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>230</v>
@@ -4338,7 +10438,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>230</v>
@@ -4418,7 +10518,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>230</v>
@@ -4495,7 +10595,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>230</v>
@@ -4575,7 +10675,7 @@
         <v>182</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>230</v>
@@ -4655,7 +10755,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>230</v>
@@ -4735,7 +10835,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>230</v>
@@ -4815,7 +10915,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>230</v>
@@ -4892,7 +10992,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>230</v>
@@ -4942,6 +11042,79 @@
       <c r="AF17" s="1" t="s">
         <v>219</v>
       </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S36"/>
+    </row>
+    <row r="38" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S38"/>
+    </row>
+    <row r="39" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S42"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S43"/>
+    </row>
+    <row r="44" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S44"/>
+    </row>
+    <row r="45" spans="19:25" x14ac:dyDescent="0.25">
+      <c r="S45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
